--- a/summary/als/real_costs_als.xlsx
+++ b/summary/als/real_costs_als.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>WELL</t>
   </si>
@@ -106,9 +106,15 @@
     <t>N_POZOS</t>
   </si>
   <si>
+    <t>ACAC-112</t>
+  </si>
+  <si>
     <t>ACAC-166</t>
   </si>
   <si>
+    <t>ACAD-095</t>
+  </si>
+  <si>
     <t>ACAE-082</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
     <t>CLBA-006</t>
   </si>
   <si>
+    <t>CLBA-007R1</t>
+  </si>
+  <si>
     <t>CLBA-010H</t>
   </si>
   <si>
@@ -217,6 +226,9 @@
     <t>YCAF-030</t>
   </si>
   <si>
+    <t>YLBD-003</t>
+  </si>
+  <si>
     <t>YLBD-018</t>
   </si>
   <si>
@@ -227,6 +239,9 @@
   </si>
   <si>
     <t>YLBD-045H</t>
+  </si>
+  <si>
+    <t>October</t>
   </si>
   <si>
     <t>May</t>
@@ -611,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,19 +732,19 @@
         <v>2025</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>25184.02</v>
+        <v>12973.06</v>
       </c>
       <c r="E2">
-        <v>318432.7114</v>
+        <v>302399.9252000001</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10239.5255</v>
       </c>
       <c r="G2">
-        <v>35498.4093</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -741,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>78857.60000000001</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>25184.02</v>
+        <v>12973.06</v>
       </c>
       <c r="U2">
-        <v>318432.7114</v>
+        <v>302399.9252000001</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>10239.5255</v>
       </c>
       <c r="W2">
-        <v>35498.4093</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -765,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC2">
-        <v>379115.1407</v>
+        <v>325612.5107</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -782,19 +797,19 @@
         <v>2025</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>17609.86</v>
+        <v>25184.02</v>
       </c>
       <c r="E3">
-        <v>243494.334</v>
+        <v>318432.7114</v>
       </c>
       <c r="F3">
-        <v>23610.8909</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>33707.7979</v>
+        <v>35498.4093</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -806,43 +821,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>81917.37000000001</v>
-      </c>
-      <c r="L3">
-        <v>39820.85</v>
-      </c>
-      <c r="M3">
-        <v>252738.5</v>
-      </c>
-      <c r="N3">
-        <v>21518.49</v>
-      </c>
-      <c r="O3">
-        <v>33647.97</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>81917.37000000001</v>
+        <v>78857.60000000001</v>
       </c>
       <c r="T3">
-        <v>39820.85</v>
+        <v>25184.02</v>
       </c>
       <c r="U3">
-        <v>252738.5</v>
+        <v>318432.7114</v>
       </c>
       <c r="V3">
-        <v>21518.49</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>33647.97</v>
+        <v>35498.4093</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -853,14 +844,11 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3">
-        <v>81917.37000000001</v>
-      </c>
       <c r="AB3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC3">
-        <v>429643.18</v>
+        <v>379115.1407</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -874,16 +862,16 @@
         <v>2025</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>26603.62</v>
+        <v>18205.06</v>
       </c>
       <c r="E4">
-        <v>514831.7822</v>
+        <v>324144.4391</v>
       </c>
       <c r="F4">
-        <v>27028.2567</v>
+        <v>25164.239</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -892,46 +880,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>141526.81</v>
-      </c>
-      <c r="L4">
-        <v>36289.75</v>
-      </c>
-      <c r="M4">
-        <v>454846.71</v>
-      </c>
-      <c r="N4">
-        <v>50340.94</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>72987.74000000001</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>141526.81</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>36289.75</v>
+        <v>18205.06</v>
       </c>
       <c r="U4">
-        <v>454846.71</v>
+        <v>324144.4391</v>
       </c>
       <c r="V4">
-        <v>50340.94</v>
+        <v>25164.239</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -940,19 +904,16 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
-      <c r="AA4">
-        <v>141526.81</v>
-      </c>
       <c r="AB4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AC4">
-        <v>755991.95</v>
+        <v>367513.7381</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -966,19 +927,19 @@
         <v>2025</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>16058</v>
+        <v>17609.86</v>
       </c>
       <c r="E5">
-        <v>317342.6932</v>
+        <v>243494.334</v>
       </c>
       <c r="F5">
-        <v>26406.9175</v>
+        <v>23610.8909</v>
       </c>
       <c r="G5">
-        <v>36993.6621</v>
+        <v>33707.7979</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -990,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>83511.89999999999</v>
+        <v>81917.37000000001</v>
       </c>
       <c r="L5">
-        <v>38308.97</v>
+        <v>39820.85</v>
       </c>
       <c r="M5">
-        <v>258025.36</v>
+        <v>252738.5</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>21518.49</v>
       </c>
       <c r="O5">
-        <v>30826.26</v>
+        <v>33647.97</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1014,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>83812.86</v>
+        <v>81917.37000000001</v>
       </c>
       <c r="T5">
-        <v>38308.97</v>
+        <v>39820.85</v>
       </c>
       <c r="U5">
-        <v>258025.36</v>
+        <v>252738.5</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>21518.49</v>
       </c>
       <c r="W5">
-        <v>30826.26</v>
+        <v>33647.97</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1038,13 +999,13 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>83812.86</v>
+        <v>81917.37000000001</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC5">
-        <v>410973.45</v>
+        <v>429643.18</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -1058,40 +1019,40 @@
         <v>2025</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D6">
-        <v>18755.46</v>
+        <v>26603.62</v>
       </c>
       <c r="E6">
-        <v>299802.0569</v>
+        <v>514831.7822</v>
       </c>
       <c r="F6">
-        <v>29513.6137</v>
+        <v>27028.2567</v>
       </c>
       <c r="G6">
-        <v>5712</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
       <c r="L6">
-        <v>28951.89</v>
+        <v>36289.75</v>
       </c>
       <c r="M6">
-        <v>297890.78</v>
+        <v>454846.71</v>
       </c>
       <c r="N6">
-        <v>25982.6</v>
+        <v>50340.94</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1100,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
       <c r="T6">
-        <v>28951.89</v>
+        <v>36289.75</v>
       </c>
       <c r="U6">
-        <v>297890.78</v>
+        <v>454846.71</v>
       </c>
       <c r="V6">
-        <v>25982.6</v>
+        <v>50340.94</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1124,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
       <c r="AB6">
         <v>2</v>
       </c>
       <c r="AC6">
-        <v>352825.27</v>
+        <v>755991.95</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -1150,19 +1111,19 @@
         <v>2025</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>19408.1</v>
+        <v>16058</v>
       </c>
       <c r="E7">
-        <v>28014.8339</v>
+        <v>317342.6932</v>
       </c>
       <c r="F7">
-        <v>55593.5105</v>
+        <v>26406.9175</v>
       </c>
       <c r="G7">
-        <v>36919.8225</v>
+        <v>36993.6621</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1174,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>83511.89999999999</v>
       </c>
       <c r="L7">
-        <v>27337.44</v>
+        <v>38308.97</v>
       </c>
       <c r="M7">
-        <v>281453.91</v>
+        <v>258025.36</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21807.01</v>
+        <v>30826.26</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1198,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>83812.86</v>
       </c>
       <c r="T7">
-        <v>27337.44</v>
+        <v>38308.97</v>
       </c>
       <c r="U7">
-        <v>281453.91</v>
+        <v>258025.36</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>21807.01</v>
+        <v>30826.26</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1222,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>83812.86</v>
       </c>
       <c r="AB7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC7">
-        <v>330598.36</v>
+        <v>410973.45</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -1242,19 +1203,19 @@
         <v>2025</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D8">
-        <v>19027.18</v>
+        <v>18755.46</v>
       </c>
       <c r="E8">
-        <v>638405.0076</v>
+        <v>299802.0569</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>29513.6137</v>
       </c>
       <c r="G8">
-        <v>38027.4172</v>
+        <v>5712</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1266,19 +1227,43 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>37198.7055</v>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>28951.89</v>
+      </c>
+      <c r="M8">
+        <v>297890.78</v>
+      </c>
+      <c r="N8">
+        <v>25982.6</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>19027.18</v>
+        <v>28951.89</v>
       </c>
       <c r="U8">
-        <v>638405.0076</v>
+        <v>297890.78</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>25982.6</v>
       </c>
       <c r="W8">
-        <v>38027.4172</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1289,11 +1274,14 @@
       <c r="Z8">
         <v>0</v>
       </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
       <c r="AB8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC8">
-        <v>695459.6048000001</v>
+        <v>352825.27</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -1307,43 +1295,43 @@
         <v>2025</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>18205.06</v>
+        <v>19408.1</v>
       </c>
       <c r="E9">
-        <v>350421.9071</v>
+        <v>28014.8339</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>55593.5105</v>
       </c>
       <c r="G9">
-        <v>35996.8269</v>
+        <v>36919.8225</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>59030.4</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>34720.53</v>
+        <v>27337.44</v>
       </c>
       <c r="M9">
-        <v>271057.69</v>
+        <v>281453.91</v>
       </c>
       <c r="N9">
-        <v>19401.54</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>38992.08</v>
+        <v>21807.01</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1355,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>59030.4</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>34720.53</v>
+        <v>27337.44</v>
       </c>
       <c r="U9">
-        <v>271057.69</v>
+        <v>281453.91</v>
       </c>
       <c r="V9">
-        <v>19401.54</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>38992.08</v>
+        <v>21807.01</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1379,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>59030.4</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC9">
-        <v>423202.24</v>
+        <v>330598.36</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -1399,19 +1387,19 @@
         <v>2025</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>13645.06</v>
+        <v>19027.18</v>
       </c>
       <c r="E10">
-        <v>299354.9628</v>
+        <v>638405.0076</v>
       </c>
       <c r="F10">
-        <v>12892.7891</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>18459.9112</v>
+        <v>38027.4172</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1423,43 +1411,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>19217.69</v>
-      </c>
-      <c r="M10">
-        <v>258930.56</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
+        <v>37198.7055</v>
       </c>
       <c r="T10">
-        <v>19217.69</v>
+        <v>19027.18</v>
       </c>
       <c r="U10">
-        <v>258930.56</v>
+        <v>638405.0076</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>38027.4172</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1470,14 +1434,11 @@
       <c r="Z10">
         <v>0</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
       <c r="AB10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC10">
-        <v>278148.25</v>
+        <v>695459.6048000001</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -1491,43 +1452,67 @@
         <v>2025</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>22457.38</v>
+        <v>18205.06</v>
       </c>
       <c r="E11">
-        <v>294985.4912</v>
+        <v>350421.9071</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>35996.8269</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>42006.49</v>
+        <v>59030.4</v>
+      </c>
+      <c r="L11">
+        <v>34720.53</v>
+      </c>
+      <c r="M11">
+        <v>271057.69</v>
+      </c>
+      <c r="N11">
+        <v>19401.54</v>
+      </c>
+      <c r="O11">
+        <v>38992.08</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>59030.4</v>
       </c>
       <c r="T11">
-        <v>22457.38</v>
+        <v>34720.53</v>
       </c>
       <c r="U11">
-        <v>294985.4912</v>
+        <v>271057.69</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>19401.54</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>38992.08</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1538,11 +1523,14 @@
       <c r="Z11">
         <v>0</v>
       </c>
+      <c r="AA11">
+        <v>59030.4</v>
+      </c>
       <c r="AB11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AC11">
-        <v>317442.8712000001</v>
+        <v>423202.24</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -1556,19 +1544,19 @@
         <v>2025</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D12">
-        <v>44610.66</v>
+        <v>13645.06</v>
       </c>
       <c r="E12">
-        <v>358194.8644</v>
+        <v>299354.9628</v>
       </c>
       <c r="F12">
-        <v>49129.3974</v>
+        <v>12892.7891</v>
       </c>
       <c r="G12">
-        <v>25843.8757</v>
+        <v>18459.9112</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1577,22 +1565,46 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>68709.94259999999</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
+      <c r="L12">
+        <v>19217.69</v>
+      </c>
+      <c r="M12">
+        <v>258930.56</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
       <c r="T12">
-        <v>44610.66</v>
+        <v>19217.69</v>
       </c>
       <c r="U12">
-        <v>358194.8644</v>
+        <v>258930.56</v>
       </c>
       <c r="V12">
-        <v>49129.3974</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>25843.8757</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -1601,13 +1613,16 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>68709.94259999999</v>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AC12">
-        <v>546488.7400999999</v>
+        <v>278148.25</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -1621,19 +1636,19 @@
         <v>2025</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D13">
-        <v>35264.5</v>
+        <v>22457.38</v>
       </c>
       <c r="E13">
-        <v>290894.2855</v>
+        <v>294985.4912</v>
       </c>
       <c r="F13">
-        <v>25630.2434</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>36735.2234</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1645,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="L13">
-        <v>37882.47</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="M13">
-        <v>278938.71</v>
+        <v>250365.09</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1669,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="T13">
-        <v>37882.47</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="U13">
-        <v>278938.71</v>
+        <v>250365.09</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1693,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AC13">
-        <v>358667.5431000001</v>
+        <v>333151.86</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -1713,19 +1728,19 @@
         <v>2025</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D14">
-        <v>21182.46</v>
+        <v>44610.66</v>
       </c>
       <c r="E14">
-        <v>516832.16</v>
+        <v>358194.8644</v>
       </c>
       <c r="F14">
-        <v>41714.5254</v>
+        <v>49129.3974</v>
       </c>
       <c r="G14">
-        <v>36735.2234</v>
+        <v>25843.8757</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1734,22 +1749,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5293.4</v>
+        <v>68709.94259999999</v>
       </c>
       <c r="K14">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>29506.7</v>
+        <v>24406.71</v>
       </c>
       <c r="M14">
-        <v>455228.52</v>
+        <v>340968.83</v>
       </c>
       <c r="N14">
-        <v>2181.06</v>
+        <v>5162.22</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1758,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>64902.09</v>
+        <v>115340</v>
       </c>
       <c r="S14">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>29506.7</v>
+        <v>24406.71</v>
       </c>
       <c r="U14">
-        <v>455228.52</v>
+        <v>340968.83</v>
       </c>
       <c r="V14">
-        <v>2181.06</v>
+        <v>5162.22</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -1782,16 +1797,16 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>64902.09</v>
+        <v>115340</v>
       </c>
       <c r="AA14">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC14">
-        <v>750831.1639999999</v>
+        <v>508633.99</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -1799,22 +1814,22 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>2025</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D15">
-        <v>18397.06</v>
+        <v>35264.5</v>
       </c>
       <c r="E15">
-        <v>326646.9343</v>
+        <v>290894.2855</v>
       </c>
       <c r="F15">
-        <v>24329.9319</v>
+        <v>25630.2434</v>
       </c>
       <c r="G15">
         <v>36735.2234</v>
@@ -1829,19 +1844,43 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>36863.1</v>
+        <v>41846.3631</v>
+      </c>
+      <c r="L15">
+        <v>37882.47</v>
+      </c>
+      <c r="M15">
+        <v>278938.71</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>41846.3631</v>
       </c>
       <c r="T15">
-        <v>18397.06</v>
+        <v>37882.47</v>
       </c>
       <c r="U15">
-        <v>326646.9343</v>
+        <v>278938.71</v>
       </c>
       <c r="V15">
-        <v>24329.9319</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>36735.2234</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1852,11 +1891,14 @@
       <c r="Z15">
         <v>0</v>
       </c>
+      <c r="AA15">
+        <v>41846.3631</v>
+      </c>
       <c r="AB15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>406109.1495999999</v>
+        <v>358667.5431000001</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -1864,7 +1906,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>2025</v>
@@ -1873,16 +1915,16 @@
         <v>77</v>
       </c>
       <c r="D16">
-        <v>25142.02</v>
+        <v>21182.46</v>
       </c>
       <c r="E16">
-        <v>277188.6893</v>
+        <v>516832.16</v>
       </c>
       <c r="F16">
-        <v>24698.2346</v>
+        <v>41714.5254</v>
       </c>
       <c r="G16">
-        <v>35406.1098</v>
+        <v>36735.2234</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1891,19 +1933,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5293.4</v>
       </c>
       <c r="K16">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
       <c r="L16">
-        <v>28089.2</v>
+        <v>29506.7</v>
       </c>
       <c r="M16">
-        <v>160763.94</v>
+        <v>455228.52</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1915,19 +1957,19 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="S16">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
       <c r="T16">
-        <v>28089.2</v>
+        <v>29506.7</v>
       </c>
       <c r="U16">
-        <v>160763.94</v>
+        <v>455228.52</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -1939,16 +1981,16 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="AA16">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC16">
-        <v>362192.72</v>
+        <v>750831.1639999999</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -1962,19 +2004,19 @@
         <v>2025</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D17">
-        <v>15006.48</v>
+        <v>18397.06</v>
       </c>
       <c r="E17">
-        <v>324866.7652</v>
+        <v>326646.9343</v>
       </c>
       <c r="F17">
-        <v>38730.0079</v>
+        <v>24329.9319</v>
       </c>
       <c r="G17">
-        <v>39190.3916</v>
+        <v>36735.2234</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1986,19 +2028,43 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>36863.1</v>
+      </c>
+      <c r="L17">
+        <v>36093.04</v>
+      </c>
+      <c r="M17">
+        <v>324824.84</v>
+      </c>
+      <c r="N17">
+        <v>7421.05</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>36863.1</v>
       </c>
       <c r="T17">
-        <v>15006.48</v>
+        <v>36093.04</v>
       </c>
       <c r="U17">
-        <v>324866.7652</v>
+        <v>324824.84</v>
       </c>
       <c r="V17">
-        <v>38730.0079</v>
+        <v>7421.05</v>
       </c>
       <c r="W17">
-        <v>39190.3916</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -2008,12 +2074,15 @@
       </c>
       <c r="Z17">
         <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>36863.1</v>
       </c>
       <c r="AB17">
         <v>9</v>
       </c>
       <c r="AC17">
-        <v>417793.6447</v>
+        <v>405202.03</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -2027,19 +2096,19 @@
         <v>2025</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D18">
-        <v>26099.62</v>
+        <v>25142.02</v>
       </c>
       <c r="E18">
-        <v>278579.4218</v>
+        <v>277188.6893</v>
       </c>
       <c r="F18">
-        <v>26251.5827</v>
+        <v>24698.2346</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>35406.1098</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2051,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29992.31</v>
+        <v>173339.58</v>
       </c>
       <c r="L18">
-        <v>24651.29</v>
+        <v>28089.2</v>
       </c>
       <c r="M18">
-        <v>267851.66</v>
+        <v>160763.94</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2075,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>29992.31</v>
+        <v>173339.58</v>
       </c>
       <c r="T18">
-        <v>24651.29</v>
+        <v>28089.2</v>
       </c>
       <c r="U18">
-        <v>267851.66</v>
+        <v>160763.94</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2099,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>29992.31</v>
+        <v>173339.58</v>
       </c>
       <c r="AB18">
         <v>1</v>
       </c>
       <c r="AC18">
-        <v>322495.26</v>
+        <v>362192.72</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -2119,19 +2188,19 @@
         <v>2025</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>27006.82</v>
+        <v>15006.48</v>
       </c>
       <c r="E19">
-        <v>264147.2883</v>
+        <v>324866.7652</v>
       </c>
       <c r="F19">
-        <v>27649.596</v>
+        <v>38730.0079</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>39190.3916</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2143,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>33999.38</v>
+        <v>50944.75</v>
       </c>
       <c r="M19">
-        <v>278850.94</v>
+        <v>288251.2</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2167,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>33999.38</v>
+        <v>50944.75</v>
       </c>
       <c r="U19">
-        <v>278850.94</v>
+        <v>288251.2</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2191,13 +2260,13 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AC19">
-        <v>377162.881</v>
+        <v>365283.14</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -2211,19 +2280,19 @@
         <v>2025</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D20">
-        <v>18896.26</v>
+        <v>26099.62</v>
       </c>
       <c r="E20">
-        <v>320793.0784</v>
+        <v>278579.4218</v>
       </c>
       <c r="F20">
-        <v>27028.2567</v>
+        <v>26251.5827</v>
       </c>
       <c r="G20">
-        <v>10686.4527</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2235,19 +2304,43 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>29992.31</v>
+      </c>
+      <c r="L20">
+        <v>24651.29</v>
+      </c>
+      <c r="M20">
+        <v>267851.66</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>29992.31</v>
       </c>
       <c r="T20">
-        <v>18896.26</v>
+        <v>24651.29</v>
       </c>
       <c r="U20">
-        <v>320793.0784</v>
+        <v>267851.66</v>
       </c>
       <c r="V20">
-        <v>27028.2567</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>10686.4527</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -2258,11 +2351,14 @@
       <c r="Z20">
         <v>0</v>
       </c>
+      <c r="AA20">
+        <v>29992.31</v>
+      </c>
       <c r="AB20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>377404.0478</v>
+        <v>322495.26</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -2276,16 +2372,16 @@
         <v>2025</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D21">
-        <v>17000</v>
+        <v>27006.82</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>264147.2883</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>27649.596</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2300,13 +2396,37 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>64312.56099999999</v>
+      </c>
+      <c r="L21">
+        <v>33999.38</v>
+      </c>
+      <c r="M21">
+        <v>278850.94</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>64312.56099999999</v>
       </c>
       <c r="T21">
-        <v>17000</v>
+        <v>33999.38</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>278850.94</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2323,11 +2443,14 @@
       <c r="Z21">
         <v>0</v>
       </c>
+      <c r="AA21">
+        <v>64312.56099999999</v>
+      </c>
       <c r="AB21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>17000</v>
+        <v>377162.881</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -2341,19 +2464,19 @@
         <v>2025</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D22">
-        <v>26563.62</v>
+        <v>18896.26</v>
       </c>
       <c r="E22">
-        <v>283269.233</v>
+        <v>320793.0784</v>
       </c>
       <c r="F22">
-        <v>25785.5783</v>
+        <v>27028.2567</v>
       </c>
       <c r="G22">
-        <v>36919.8225</v>
+        <v>10686.4527</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2365,43 +2488,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18450</v>
-      </c>
-      <c r="L22">
-        <v>32674.29</v>
-      </c>
-      <c r="M22">
-        <v>290087.79</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>16697.25</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>18450</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>32674.29</v>
+        <v>18896.26</v>
       </c>
       <c r="U22">
-        <v>290087.79</v>
+        <v>320793.0784</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>27028.2567</v>
       </c>
       <c r="W22">
-        <v>16697.25</v>
+        <v>10686.4527</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2412,14 +2511,11 @@
       <c r="Z22">
         <v>0</v>
       </c>
-      <c r="AA22">
-        <v>18450</v>
-      </c>
       <c r="AB22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC22">
-        <v>357909.33</v>
+        <v>377404.0478</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -2433,13 +2529,13 @@
         <v>2025</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D23">
-        <v>18812.78</v>
+        <v>17000</v>
       </c>
       <c r="E23">
-        <v>591541.1514</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2454,43 +2550,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>95464.1189</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>19227.3628</v>
-      </c>
-      <c r="L23">
-        <v>23508.78</v>
-      </c>
-      <c r="M23">
-        <v>568269.17</v>
-      </c>
-      <c r="N23">
-        <v>2615.02</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>36493.87</v>
-      </c>
-      <c r="R23">
-        <v>90840</v>
-      </c>
-      <c r="S23">
-        <v>19719.56</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>23508.78</v>
+        <v>17000</v>
       </c>
       <c r="U23">
-        <v>568269.17</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>2615.02</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -2499,19 +2571,16 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>90840</v>
-      </c>
-      <c r="AA23">
-        <v>19719.56</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC23">
-        <v>741446.4000000001</v>
+        <v>17000</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -2525,85 +2594,85 @@
         <v>2025</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24">
-        <v>18963.92</v>
+        <v>26563.62</v>
       </c>
       <c r="E24">
-        <v>267383.277</v>
+        <v>283269.233</v>
       </c>
       <c r="F24">
-        <v>25093.7551</v>
+        <v>25785.5783</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>36919.8225</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="L24">
-        <v>29758.22</v>
+        <v>32674.29</v>
       </c>
       <c r="M24">
-        <v>245114.65</v>
+        <v>290087.79</v>
       </c>
       <c r="N24">
-        <v>6805.46</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10800.63</v>
+        <v>16697.25</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="T24">
-        <v>29758.22</v>
+        <v>32674.29</v>
       </c>
       <c r="U24">
-        <v>245114.65</v>
+        <v>290087.79</v>
       </c>
       <c r="V24">
-        <v>6805.46</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>10800.63</v>
+        <v>16697.25</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC24">
-        <v>328972.83</v>
+        <v>357909.33</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -2617,19 +2686,19 @@
         <v>2025</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D25">
-        <v>16590.18</v>
+        <v>18812.78</v>
       </c>
       <c r="E25">
-        <v>327010.7217</v>
+        <v>591541.1514</v>
       </c>
       <c r="F25">
-        <v>25630.2434</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>36402.945</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2638,64 +2707,64 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>95464.1189</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19227.3628</v>
       </c>
       <c r="L25">
-        <v>21705.25</v>
+        <v>23508.78</v>
       </c>
       <c r="M25">
-        <v>287071.98</v>
+        <v>568269.17</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2615.02</v>
       </c>
       <c r="O25">
-        <v>36194.4</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>90840</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>19719.56</v>
       </c>
       <c r="T25">
-        <v>21705.25</v>
+        <v>23508.78</v>
       </c>
       <c r="U25">
-        <v>287071.98</v>
+        <v>568269.17</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>2615.02</v>
       </c>
       <c r="W25">
-        <v>36194.4</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>90840</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>19719.56</v>
       </c>
       <c r="AB25">
         <v>3</v>
       </c>
       <c r="AC25">
-        <v>344971.63</v>
+        <v>741446.4000000001</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -2709,19 +2778,19 @@
         <v>2025</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D26">
-        <v>18460.42</v>
+        <v>21300</v>
       </c>
       <c r="E26">
-        <v>281664.89</v>
+        <v>303500</v>
       </c>
       <c r="F26">
-        <v>25785.58</v>
+        <v>39800</v>
       </c>
       <c r="G26">
-        <v>36978.89</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2730,43 +2799,19 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26">
-        <v>28420.94</v>
-      </c>
-      <c r="M26">
-        <v>239742.97</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
       <c r="T26">
-        <v>28420.94</v>
+        <v>21300</v>
       </c>
       <c r="U26">
-        <v>239742.97</v>
+        <v>303500</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>39800</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -2778,16 +2823,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AB26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AC26">
-        <v>268163.91</v>
+        <v>404600</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -2801,85 +2843,85 @@
         <v>2025</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D27">
-        <v>18541.06</v>
+        <v>18963.92</v>
       </c>
       <c r="E27">
-        <v>319530.8217</v>
+        <v>267383.277</v>
       </c>
       <c r="F27">
-        <v>36708.3923</v>
+        <v>25093.7551</v>
       </c>
       <c r="G27">
-        <v>37289.0207</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="J27">
-        <v>5373.2</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>24335.07</v>
+        <v>29758.22</v>
       </c>
       <c r="M27">
-        <v>247385.28</v>
+        <v>245114.65</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>6805.46</v>
       </c>
       <c r="O27">
-        <v>6678.9</v>
+        <v>10800.63</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>24335.07</v>
+        <v>29758.22</v>
       </c>
       <c r="U27">
-        <v>247385.28</v>
+        <v>245114.65</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>6805.46</v>
       </c>
       <c r="W27">
-        <v>6678.9</v>
+        <v>10800.63</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC27">
-        <v>361031.96</v>
+        <v>328972.83</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -2896,16 +2938,16 @@
         <v>79</v>
       </c>
       <c r="D28">
-        <v>14932.88</v>
+        <v>16590.18</v>
       </c>
       <c r="E28">
-        <v>262147.1729</v>
+        <v>327010.7217</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>25630.2434</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>36402.945</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2914,22 +2956,22 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>5376</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>22202.17</v>
+        <v>21705.25</v>
       </c>
       <c r="M28">
-        <v>232396.83</v>
+        <v>287071.98</v>
       </c>
       <c r="N28">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>36194.4</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2944,16 +2986,16 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>22202.17</v>
+        <v>21705.25</v>
       </c>
       <c r="U28">
-        <v>232396.83</v>
+        <v>287071.98</v>
       </c>
       <c r="V28">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>36194.4</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2968,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC28">
-        <v>257909.93</v>
+        <v>344971.63</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -2985,19 +3027,19 @@
         <v>2025</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D29">
-        <v>16058</v>
+        <v>18460.42</v>
       </c>
       <c r="E29">
-        <v>317342.6932</v>
+        <v>281664.89</v>
       </c>
       <c r="F29">
-        <v>26406.9175</v>
+        <v>25785.58</v>
       </c>
       <c r="G29">
-        <v>36993.6621</v>
+        <v>36978.89</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3009,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>31949.91</v>
+        <v>28420.94</v>
       </c>
       <c r="M29">
-        <v>264422.99</v>
+        <v>239742.97</v>
       </c>
       <c r="N29">
-        <v>6589.74</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -3033,16 +3075,16 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>31949.91</v>
+        <v>28420.94</v>
       </c>
       <c r="U29">
-        <v>264422.99</v>
+        <v>239742.97</v>
       </c>
       <c r="V29">
-        <v>6589.74</v>
+        <v>0</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -3057,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>6</v>
       </c>
       <c r="AC29">
-        <v>317069.51</v>
+        <v>268163.91</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -3077,19 +3119,19 @@
         <v>2025</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D30">
-        <v>15265.68</v>
+        <v>18541.06</v>
       </c>
       <c r="E30">
-        <v>311352.2643</v>
+        <v>319530.8217</v>
       </c>
       <c r="F30">
-        <v>26406.9175</v>
+        <v>36708.3923</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>37289.0207</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3098,22 +3140,22 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>5373.2</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="L30">
-        <v>34725.64</v>
+        <v>24335.07</v>
       </c>
       <c r="M30">
-        <v>314368.92</v>
+        <v>247385.28</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3125,19 +3167,19 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="T30">
-        <v>34725.64</v>
+        <v>24335.07</v>
       </c>
       <c r="U30">
-        <v>314368.92</v>
+        <v>247385.28</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3149,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC30">
-        <v>349094.56</v>
+        <v>361031.96</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -3169,13 +3211,13 @@
         <v>2025</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D31">
-        <v>20558.98</v>
+        <v>14932.88</v>
       </c>
       <c r="E31">
-        <v>300178.145</v>
+        <v>262147.1729</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3187,22 +3229,46 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
+      <c r="L31">
+        <v>22202.17</v>
+      </c>
+      <c r="M31">
+        <v>231965.51</v>
+      </c>
+      <c r="N31">
+        <v>3310.93</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
       <c r="T31">
-        <v>20558.98</v>
+        <v>22202.17</v>
       </c>
       <c r="U31">
-        <v>300178.145</v>
+        <v>231965.51</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>3310.93</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3211,16 +3277,19 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
       <c r="AB31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC31">
-        <v>357230.995</v>
+        <v>257478.61</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -3234,22 +3303,22 @@
         <v>2025</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32">
-        <v>80000</v>
+        <v>16058</v>
       </c>
       <c r="E32">
-        <v>120000</v>
+        <v>317342.6932</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>36993.6621</v>
       </c>
       <c r="H32">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3258,22 +3327,46 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>22674.42</v>
+        <v>14106.87</v>
+      </c>
+      <c r="L32">
+        <v>31949.91</v>
+      </c>
+      <c r="M32">
+        <v>264422.99</v>
+      </c>
+      <c r="N32">
+        <v>6589.74</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>14106.87</v>
       </c>
       <c r="T32">
-        <v>80000</v>
+        <v>31949.91</v>
       </c>
       <c r="U32">
-        <v>120000</v>
+        <v>264422.99</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>6589.74</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3281,11 +3374,14 @@
       <c r="Z32">
         <v>0</v>
       </c>
+      <c r="AA32">
+        <v>14106.87</v>
+      </c>
       <c r="AB32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC32">
-        <v>235000</v>
+        <v>317069.51</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -3299,16 +3395,16 @@
         <v>2025</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D33">
-        <v>14668.56</v>
+        <v>15265.68</v>
       </c>
       <c r="E33">
-        <v>301721.9088</v>
+        <v>311352.2643</v>
       </c>
       <c r="F33">
-        <v>24232.2302</v>
+        <v>26406.9175</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3326,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>27181.54</v>
+        <v>34725.64</v>
       </c>
       <c r="M33">
-        <v>270393.7</v>
+        <v>314368.92</v>
       </c>
       <c r="N33">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -3350,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>27181.54</v>
+        <v>34725.64</v>
       </c>
       <c r="U33">
-        <v>270393.7</v>
+        <v>314368.92</v>
       </c>
       <c r="V33">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3374,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>319664.58</v>
+        <v>349094.56</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -3391,13 +3487,13 @@
         <v>2025</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D34">
-        <v>30000</v>
+        <v>20558.98</v>
       </c>
       <c r="E34">
-        <v>120000</v>
+        <v>300178.145</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3406,22 +3502,22 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>81189.56</v>
+        <v>35983.12</v>
       </c>
       <c r="M34">
-        <v>75026.78</v>
+        <v>297098.25</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3433,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3442,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>81189.56</v>
+        <v>35983.12</v>
       </c>
       <c r="U34">
-        <v>75026.78</v>
+        <v>297098.25</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3457,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -3466,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC34">
-        <v>156216.34</v>
+        <v>369575.24</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -3483,43 +3579,43 @@
         <v>2025</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="E35">
-        <v>433983.8522</v>
+        <v>120000</v>
       </c>
       <c r="F35">
-        <v>66756.6691</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>37362.8604</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>110048.5105</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
       <c r="L35">
-        <v>33875.99</v>
+        <v>52083.67</v>
       </c>
       <c r="M35">
-        <v>388449.69</v>
+        <v>166132.1</v>
       </c>
       <c r="N35">
-        <v>41728.31</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3534,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>33875.99</v>
+        <v>52083.67</v>
       </c>
       <c r="U35">
-        <v>388449.69</v>
+        <v>166132.1</v>
       </c>
       <c r="V35">
-        <v>41728.31</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3558,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AC35">
-        <v>498179.22</v>
+        <v>218215.77</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -3575,19 +3671,19 @@
         <v>2025</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D36">
-        <v>19881.64</v>
+        <v>14668.56</v>
       </c>
       <c r="E36">
-        <v>544086.7781999999</v>
+        <v>301721.9088</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>24232.2302</v>
       </c>
       <c r="G36">
-        <v>34335.4349</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3602,16 +3698,16 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>24492.98</v>
+        <v>27181.54</v>
       </c>
       <c r="M36">
-        <v>532274.26</v>
+        <v>270393.7</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>22089.34</v>
       </c>
       <c r="O36">
-        <v>13669.61</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3626,16 +3722,16 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>24492.98</v>
+        <v>27181.54</v>
       </c>
       <c r="U36">
-        <v>532274.26</v>
+        <v>270393.7</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>22089.34</v>
       </c>
       <c r="W36">
-        <v>13669.61</v>
+        <v>0</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -3650,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC36">
-        <v>570436.85</v>
+        <v>319664.58</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -3667,22 +3763,22 @@
         <v>2025</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D37">
-        <v>20006.44</v>
+        <v>30000</v>
       </c>
       <c r="E37">
-        <v>386492.0891</v>
+        <v>120000</v>
       </c>
       <c r="F37">
-        <v>26973.826</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3691,16 +3787,40 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>22674.42</v>
+      </c>
+      <c r="L37">
+        <v>81189.56</v>
+      </c>
+      <c r="M37">
+        <v>75026.78</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>21490.444</v>
       </c>
       <c r="T37">
-        <v>20006.44</v>
+        <v>81189.56</v>
       </c>
       <c r="U37">
-        <v>386492.0891</v>
+        <v>75026.78</v>
       </c>
       <c r="V37">
-        <v>26973.826</v>
+        <v>0</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -3714,11 +3834,14 @@
       <c r="Z37">
         <v>0</v>
       </c>
+      <c r="AA37">
+        <v>21490.444</v>
+      </c>
       <c r="AB37">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC37">
-        <v>433472.3551</v>
+        <v>177706.784</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -3732,43 +3855,43 @@
         <v>2025</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D38">
-        <v>32773.06</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>341581.165</v>
+        <v>433983.8522</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>66756.6691</v>
       </c>
       <c r="G38">
-        <v>36550.6243</v>
+        <v>37362.8604</v>
       </c>
       <c r="H38">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>110048.5105</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>35046.84</v>
+        <v>33875.99</v>
       </c>
       <c r="M38">
-        <v>349849.48</v>
+        <v>388449.69</v>
       </c>
       <c r="N38">
-        <v>11417</v>
+        <v>41728.31</v>
       </c>
       <c r="O38">
-        <v>36470.26</v>
+        <v>34125.23</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3783,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>35046.84</v>
+        <v>33875.99</v>
       </c>
       <c r="U38">
-        <v>349849.48</v>
+        <v>388449.69</v>
       </c>
       <c r="V38">
-        <v>11417</v>
+        <v>41728.31</v>
       </c>
       <c r="W38">
-        <v>36470.26</v>
+        <v>34125.23</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3810,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="AC38">
-        <v>432783.58</v>
+        <v>498179.22</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -3824,19 +3947,19 @@
         <v>2025</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D39">
-        <v>29792.44</v>
+        <v>19881.64</v>
       </c>
       <c r="E39">
-        <v>592371.3167</v>
+        <v>544086.7781999999</v>
       </c>
       <c r="F39">
-        <v>25940.9131</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>37196.7212</v>
+        <v>34335.4349</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3848,22 +3971,22 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>35571.27</v>
+        <v>24492.98</v>
       </c>
       <c r="M39">
-        <v>48616.23</v>
+        <v>532274.26</v>
       </c>
       <c r="N39">
-        <v>37765.32</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>37083.02</v>
+        <v>13669.61</v>
       </c>
       <c r="P39">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3872,22 +3995,22 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>35571.27</v>
+        <v>24492.98</v>
       </c>
       <c r="U39">
-        <v>48616.23</v>
+        <v>532274.26</v>
       </c>
       <c r="V39">
-        <v>37765.32</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>37083.02</v>
+        <v>13669.61</v>
       </c>
       <c r="X39">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3896,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC39">
-        <v>685822.3799999999</v>
+        <v>570436.85</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -3916,16 +4039,16 @@
         <v>2025</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D40">
-        <v>25326.82</v>
+        <v>20006.44</v>
       </c>
       <c r="E40">
-        <v>276375.5386</v>
+        <v>386492.0891</v>
       </c>
       <c r="F40">
-        <v>25008.9042</v>
+        <v>26973.826</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3940,40 +4063,16 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>23876.1125</v>
-      </c>
-      <c r="L40">
-        <v>27944</v>
-      </c>
-      <c r="M40">
-        <v>230888.76</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>27944</v>
+        <v>20006.44</v>
       </c>
       <c r="U40">
-        <v>230888.76</v>
+        <v>386492.0891</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>26973.826</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -3987,14 +4086,11 @@
       <c r="Z40">
         <v>0</v>
       </c>
-      <c r="AA40">
-        <v>23876.1125</v>
-      </c>
       <c r="AB40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC40">
-        <v>282708.8725</v>
+        <v>433472.3551</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -4008,43 +4104,43 @@
         <v>2025</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D41">
-        <v>18541.06</v>
+        <v>32773.06</v>
       </c>
       <c r="E41">
-        <v>252067.7995</v>
+        <v>341581.165</v>
       </c>
       <c r="F41">
-        <v>26979.2036</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>36919.8225</v>
+        <v>36550.6243</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>52444.52</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>28895.31</v>
+        <v>35046.84</v>
       </c>
       <c r="M41">
-        <v>251643.6000000001</v>
+        <v>349849.48</v>
       </c>
       <c r="N41">
-        <v>3379</v>
+        <v>11417</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>36470.26</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -4053,22 +4149,22 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>52444.52</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>28895.31</v>
+        <v>35046.84</v>
       </c>
       <c r="U41">
-        <v>251643.6000000001</v>
+        <v>349849.48</v>
       </c>
       <c r="V41">
-        <v>3379</v>
+        <v>11417</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>36470.26</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -4077,16 +4173,16 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>52444.52</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC41">
-        <v>344392.3200000001</v>
+        <v>432783.58</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -4100,19 +4196,19 @@
         <v>2025</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D42">
-        <v>21854.46</v>
+        <v>29792.44</v>
       </c>
       <c r="E42">
-        <v>624821.7819000001</v>
+        <v>592371.3167</v>
       </c>
       <c r="F42">
-        <v>12116.1151</v>
+        <v>25940.9131</v>
       </c>
       <c r="G42">
-        <v>40316.4462</v>
+        <v>37196.7212</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4121,64 +4217,64 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>19487.5781</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>229812.833425</v>
+        <v>500373.46</v>
       </c>
       <c r="L42">
-        <v>29071.03</v>
+        <v>35571.27</v>
       </c>
       <c r="M42">
-        <v>325344.86</v>
+        <v>48616.23</v>
       </c>
       <c r="N42">
-        <v>91485.00999999999</v>
+        <v>37765.32</v>
       </c>
       <c r="O42">
-        <v>39357.69</v>
+        <v>37083.02</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>26413.08</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>229812.833425</v>
+        <v>500373.46</v>
       </c>
       <c r="T42">
-        <v>29071.03</v>
+        <v>35571.27</v>
       </c>
       <c r="U42">
-        <v>325344.86</v>
+        <v>48616.23</v>
       </c>
       <c r="V42">
-        <v>91485.00999999999</v>
+        <v>37765.32</v>
       </c>
       <c r="W42">
-        <v>39357.69</v>
+        <v>37083.02</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>26413.08</v>
       </c>
       <c r="Y42">
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>229812.833425</v>
+        <v>500373.46</v>
       </c>
       <c r="AB42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC42">
-        <v>778637.4234249999</v>
+        <v>685822.3799999999</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -4195,84 +4291,425 @@
         <v>75</v>
       </c>
       <c r="D43">
+        <v>23898.82</v>
+      </c>
+      <c r="E43">
+        <v>409625.5938</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>32674.0429</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>42006.49</v>
+      </c>
+      <c r="T43">
+        <v>23898.82</v>
+      </c>
+      <c r="U43">
+        <v>409625.5938</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>32674.0429</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>10</v>
+      </c>
+      <c r="AC43">
+        <v>466198.4567</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44">
+        <v>2025</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44">
+        <v>25326.82</v>
+      </c>
+      <c r="E44">
+        <v>276375.5386</v>
+      </c>
+      <c r="F44">
+        <v>25008.9042</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>23876.1125</v>
+      </c>
+      <c r="L44">
+        <v>27944</v>
+      </c>
+      <c r="M44">
+        <v>230888.76</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>23876.1125</v>
+      </c>
+      <c r="T44">
+        <v>27944</v>
+      </c>
+      <c r="U44">
+        <v>230888.76</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>23876.1125</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>282708.8725</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <v>2025</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45">
+        <v>18541.06</v>
+      </c>
+      <c r="E45">
+        <v>252067.7995</v>
+      </c>
+      <c r="F45">
+        <v>26979.2036</v>
+      </c>
+      <c r="G45">
+        <v>36919.8225</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>5600</v>
+      </c>
+      <c r="K45">
+        <v>52444.52</v>
+      </c>
+      <c r="L45">
+        <v>28895.31</v>
+      </c>
+      <c r="M45">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="N45">
+        <v>3379</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>8029.89</v>
+      </c>
+      <c r="S45">
+        <v>52444.52</v>
+      </c>
+      <c r="T45">
+        <v>28895.31</v>
+      </c>
+      <c r="U45">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="V45">
+        <v>3379</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>8029.89</v>
+      </c>
+      <c r="AA45">
+        <v>52444.52</v>
+      </c>
+      <c r="AB45">
+        <v>7</v>
+      </c>
+      <c r="AC45">
+        <v>344392.3200000001</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46">
+        <v>2025</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46">
+        <v>21854.46</v>
+      </c>
+      <c r="E46">
+        <v>624821.7819000001</v>
+      </c>
+      <c r="F46">
+        <v>12116.1151</v>
+      </c>
+      <c r="G46">
+        <v>40316.4462</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>19487.5781</v>
+      </c>
+      <c r="K46">
+        <v>229812.833425</v>
+      </c>
+      <c r="L46">
+        <v>33879.14</v>
+      </c>
+      <c r="M46">
+        <v>325344.86</v>
+      </c>
+      <c r="N46">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="O46">
+        <v>39357.69</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>63566</v>
+      </c>
+      <c r="S46">
+        <v>229812.833425</v>
+      </c>
+      <c r="T46">
+        <v>33879.14</v>
+      </c>
+      <c r="U46">
+        <v>325344.86</v>
+      </c>
+      <c r="V46">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="W46">
+        <v>39357.69</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>63566</v>
+      </c>
+      <c r="AA46">
+        <v>229812.833425</v>
+      </c>
+      <c r="AB46">
+        <v>6</v>
+      </c>
+      <c r="AC46">
+        <v>783445.533425</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47">
+        <v>2025</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47">
         <v>27683.86</v>
       </c>
-      <c r="E43">
+      <c r="E47">
         <v>418982.5319</v>
       </c>
-      <c r="F43">
+      <c r="F47">
         <v>51527.9349</v>
       </c>
-      <c r="G43">
+      <c r="G47">
         <v>40992.0789</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>181185.5419</v>
       </c>
-      <c r="K43">
+      <c r="K47">
         <v>60577.37</v>
       </c>
-      <c r="L43">
+      <c r="L47">
         <v>30868.28</v>
       </c>
-      <c r="M43">
+      <c r="M47">
         <v>363209.57</v>
       </c>
-      <c r="N43">
+      <c r="N47">
         <v>65966.92</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
         <v>95933.12</v>
       </c>
-      <c r="S43">
+      <c r="S47">
         <v>60577.37</v>
       </c>
-      <c r="T43">
+      <c r="T47">
         <v>30868.28</v>
       </c>
-      <c r="U43">
+      <c r="U47">
         <v>363209.57</v>
       </c>
-      <c r="V43">
+      <c r="V47">
         <v>65966.92</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
         <v>95933.12</v>
       </c>
-      <c r="AA43">
+      <c r="AA47">
         <v>60577.37</v>
       </c>
-      <c r="AB43">
+      <c r="AB47">
         <v>7</v>
       </c>
-      <c r="AC43">
+      <c r="AC47">
         <v>616555.26</v>
       </c>
-      <c r="AD43">
+      <c r="AD47">
         <v>1</v>
       </c>
     </row>

--- a/summary/als/real_costs_als.xlsx
+++ b/summary/als/real_costs_als.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>WELL</t>
   </si>
@@ -106,9 +106,15 @@
     <t>N_POZOS</t>
   </si>
   <si>
+    <t>ACAC-112</t>
+  </si>
+  <si>
     <t>ACAC-166</t>
   </si>
   <si>
+    <t>ACAD-095</t>
+  </si>
+  <si>
     <t>ACAE-082</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
     <t>CLBA-006</t>
   </si>
   <si>
+    <t>CLBA-007R1</t>
+  </si>
+  <si>
     <t>CLBA-010H</t>
   </si>
   <si>
@@ -217,6 +226,9 @@
     <t>YCAF-030</t>
   </si>
   <si>
+    <t>YLBD-003</t>
+  </si>
+  <si>
     <t>YLBD-018</t>
   </si>
   <si>
@@ -227,6 +239,9 @@
   </si>
   <si>
     <t>YLBD-045H</t>
+  </si>
+  <si>
+    <t>October</t>
   </si>
   <si>
     <t>May</t>
@@ -611,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,19 +732,19 @@
         <v>2025</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>25184.02</v>
+        <v>12973.06</v>
       </c>
       <c r="E2">
-        <v>318432.7114</v>
+        <v>302399.9252000001</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10239.5255</v>
       </c>
       <c r="G2">
-        <v>35498.4093</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -741,19 +756,43 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>78857.60000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>13391.57</v>
+      </c>
+      <c r="M2">
+        <v>279350.01</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>63774.22</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>25184.02</v>
+        <v>13391.57</v>
       </c>
       <c r="U2">
-        <v>318432.7114</v>
+        <v>279350.01</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>35498.4093</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -762,13 +801,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
+        <v>63774.22</v>
+      </c>
+      <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC2">
-        <v>379115.1407</v>
+        <v>356515.8</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -782,19 +824,19 @@
         <v>2025</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>17609.86</v>
+        <v>25184.02</v>
       </c>
       <c r="E3">
-        <v>243494.334</v>
+        <v>318432.7114</v>
       </c>
       <c r="F3">
-        <v>23610.8909</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>33707.7979</v>
+        <v>35498.4093</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -806,43 +848,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>81917.37000000001</v>
-      </c>
-      <c r="L3">
-        <v>39820.85</v>
-      </c>
-      <c r="M3">
-        <v>252738.5</v>
-      </c>
-      <c r="N3">
-        <v>21518.49</v>
-      </c>
-      <c r="O3">
-        <v>33647.97</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>81917.37000000001</v>
+        <v>78857.60000000001</v>
       </c>
       <c r="T3">
-        <v>39820.85</v>
+        <v>25184.02</v>
       </c>
       <c r="U3">
-        <v>252738.5</v>
+        <v>318432.7114</v>
       </c>
       <c r="V3">
-        <v>21518.49</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>33647.97</v>
+        <v>35498.4093</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -853,14 +871,11 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3">
-        <v>81917.37000000001</v>
-      </c>
       <c r="AB3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC3">
-        <v>429643.18</v>
+        <v>379115.1407</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -874,16 +889,16 @@
         <v>2025</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>26603.62</v>
+        <v>18205.06</v>
       </c>
       <c r="E4">
-        <v>514831.7822</v>
+        <v>324144.4391</v>
       </c>
       <c r="F4">
-        <v>27028.2567</v>
+        <v>25164.239</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -892,22 +907,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>141526.81</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>36289.75</v>
+        <v>33666.72</v>
       </c>
       <c r="M4">
-        <v>454846.71</v>
+        <v>341703.8</v>
       </c>
       <c r="N4">
-        <v>50340.94</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -916,22 +931,22 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>141526.81</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>36289.75</v>
+        <v>33666.72</v>
       </c>
       <c r="U4">
-        <v>454846.71</v>
+        <v>341703.8</v>
       </c>
       <c r="V4">
-        <v>50340.94</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -940,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>141526.81</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AC4">
-        <v>755991.95</v>
+        <v>375370.52</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -966,19 +981,19 @@
         <v>2025</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>16058</v>
+        <v>17609.86</v>
       </c>
       <c r="E5">
-        <v>317342.6932</v>
+        <v>243494.334</v>
       </c>
       <c r="F5">
-        <v>26406.9175</v>
+        <v>23610.8909</v>
       </c>
       <c r="G5">
-        <v>36993.6621</v>
+        <v>33707.7979</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -990,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>83511.89999999999</v>
+        <v>81917.37000000001</v>
       </c>
       <c r="L5">
-        <v>38308.97</v>
+        <v>39820.85</v>
       </c>
       <c r="M5">
-        <v>258025.36</v>
+        <v>252738.5</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>21518.49</v>
       </c>
       <c r="O5">
-        <v>30826.26</v>
+        <v>33647.97</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1014,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>83812.86</v>
+        <v>81917.37000000001</v>
       </c>
       <c r="T5">
-        <v>38308.97</v>
+        <v>39820.85</v>
       </c>
       <c r="U5">
-        <v>258025.36</v>
+        <v>252738.5</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>21518.49</v>
       </c>
       <c r="W5">
-        <v>30826.26</v>
+        <v>33647.97</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1038,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>83812.86</v>
+        <v>81917.37000000001</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC5">
-        <v>410973.45</v>
+        <v>429643.18</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -1058,40 +1073,40 @@
         <v>2025</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D6">
-        <v>18755.46</v>
+        <v>26603.62</v>
       </c>
       <c r="E6">
-        <v>299802.0569</v>
+        <v>514831.7822</v>
       </c>
       <c r="F6">
-        <v>29513.6137</v>
+        <v>27028.2567</v>
       </c>
       <c r="G6">
-        <v>5712</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
       <c r="L6">
-        <v>28951.89</v>
+        <v>36289.75</v>
       </c>
       <c r="M6">
-        <v>297890.78</v>
+        <v>454846.71</v>
       </c>
       <c r="N6">
-        <v>25982.6</v>
+        <v>50340.94</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1100,22 +1115,22 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
       <c r="T6">
-        <v>28951.89</v>
+        <v>36289.75</v>
       </c>
       <c r="U6">
-        <v>297890.78</v>
+        <v>454846.71</v>
       </c>
       <c r="V6">
-        <v>25982.6</v>
+        <v>50340.94</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1124,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
       <c r="AB6">
         <v>2</v>
       </c>
       <c r="AC6">
-        <v>352825.27</v>
+        <v>755991.95</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -1150,19 +1165,19 @@
         <v>2025</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>19408.1</v>
+        <v>16058</v>
       </c>
       <c r="E7">
-        <v>28014.8339</v>
+        <v>317342.6932</v>
       </c>
       <c r="F7">
-        <v>55593.5105</v>
+        <v>26406.9175</v>
       </c>
       <c r="G7">
-        <v>36919.8225</v>
+        <v>36993.6621</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1174,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>83511.89999999999</v>
       </c>
       <c r="L7">
-        <v>27337.44</v>
+        <v>38308.97</v>
       </c>
       <c r="M7">
-        <v>281453.91</v>
+        <v>258025.36</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21807.01</v>
+        <v>30826.26</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1198,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>83812.86</v>
       </c>
       <c r="T7">
-        <v>27337.44</v>
+        <v>38308.97</v>
       </c>
       <c r="U7">
-        <v>281453.91</v>
+        <v>258025.36</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>21807.01</v>
+        <v>30826.26</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1222,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>83812.86</v>
       </c>
       <c r="AB7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC7">
-        <v>330598.36</v>
+        <v>410973.45</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -1242,19 +1257,19 @@
         <v>2025</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D8">
-        <v>19027.18</v>
+        <v>18755.46</v>
       </c>
       <c r="E8">
-        <v>638405.0076</v>
+        <v>299802.0569</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>29513.6137</v>
       </c>
       <c r="G8">
-        <v>38027.4172</v>
+        <v>5712</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1266,19 +1281,43 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>37198.7055</v>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>28951.89</v>
+      </c>
+      <c r="M8">
+        <v>297890.78</v>
+      </c>
+      <c r="N8">
+        <v>25982.6</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>19027.18</v>
+        <v>28951.89</v>
       </c>
       <c r="U8">
-        <v>638405.0076</v>
+        <v>297890.78</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>25982.6</v>
       </c>
       <c r="W8">
-        <v>38027.4172</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1289,11 +1328,14 @@
       <c r="Z8">
         <v>0</v>
       </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
       <c r="AB8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC8">
-        <v>695459.6048000001</v>
+        <v>352825.27</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -1307,43 +1349,43 @@
         <v>2025</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>18205.06</v>
+        <v>19408.1</v>
       </c>
       <c r="E9">
-        <v>350421.9071</v>
+        <v>28014.8339</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>55593.5105</v>
       </c>
       <c r="G9">
-        <v>35996.8269</v>
+        <v>36919.8225</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>59030.4</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>34720.53</v>
+        <v>27337.44</v>
       </c>
       <c r="M9">
-        <v>271057.69</v>
+        <v>281453.91</v>
       </c>
       <c r="N9">
-        <v>19401.54</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>38992.08</v>
+        <v>21807.01</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1355,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>59030.4</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>34720.53</v>
+        <v>27337.44</v>
       </c>
       <c r="U9">
-        <v>271057.69</v>
+        <v>281453.91</v>
       </c>
       <c r="V9">
-        <v>19401.54</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>38992.08</v>
+        <v>21807.01</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1379,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>59030.4</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC9">
-        <v>423202.24</v>
+        <v>330598.36</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -1399,19 +1441,19 @@
         <v>2025</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>13645.06</v>
+        <v>19027.18</v>
       </c>
       <c r="E10">
-        <v>299354.9628</v>
+        <v>638405.0076</v>
       </c>
       <c r="F10">
-        <v>12892.7891</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>18459.9112</v>
+        <v>38027.4172</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1423,43 +1465,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>19217.69</v>
-      </c>
-      <c r="M10">
-        <v>258930.56</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
+        <v>37198.7055</v>
       </c>
       <c r="T10">
-        <v>19217.69</v>
+        <v>19027.18</v>
       </c>
       <c r="U10">
-        <v>258930.56</v>
+        <v>638405.0076</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>38027.4172</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1470,14 +1488,11 @@
       <c r="Z10">
         <v>0</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
       <c r="AB10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC10">
-        <v>278148.25</v>
+        <v>695459.6048000001</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -1491,43 +1506,67 @@
         <v>2025</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>22457.38</v>
+        <v>18205.06</v>
       </c>
       <c r="E11">
-        <v>294985.4912</v>
+        <v>350421.9071</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>35996.8269</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>42006.49</v>
+        <v>59030.4</v>
+      </c>
+      <c r="L11">
+        <v>34720.53</v>
+      </c>
+      <c r="M11">
+        <v>271057.69</v>
+      </c>
+      <c r="N11">
+        <v>19401.54</v>
+      </c>
+      <c r="O11">
+        <v>38992.08</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>59030.4</v>
       </c>
       <c r="T11">
-        <v>22457.38</v>
+        <v>34720.53</v>
       </c>
       <c r="U11">
-        <v>294985.4912</v>
+        <v>271057.69</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>19401.54</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>38992.08</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1538,11 +1577,14 @@
       <c r="Z11">
         <v>0</v>
       </c>
+      <c r="AA11">
+        <v>59030.4</v>
+      </c>
       <c r="AB11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AC11">
-        <v>317442.8712000001</v>
+        <v>423202.24</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -1556,19 +1598,19 @@
         <v>2025</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D12">
-        <v>44610.66</v>
+        <v>13645.06</v>
       </c>
       <c r="E12">
-        <v>358194.8644</v>
+        <v>299354.9628</v>
       </c>
       <c r="F12">
-        <v>49129.3974</v>
+        <v>12892.7891</v>
       </c>
       <c r="G12">
-        <v>25843.8757</v>
+        <v>18459.9112</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1577,22 +1619,46 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>68709.94259999999</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
+      <c r="L12">
+        <v>19217.69</v>
+      </c>
+      <c r="M12">
+        <v>258930.56</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
       <c r="T12">
-        <v>44610.66</v>
+        <v>19217.69</v>
       </c>
       <c r="U12">
-        <v>358194.8644</v>
+        <v>258930.56</v>
       </c>
       <c r="V12">
-        <v>49129.3974</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>25843.8757</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -1601,13 +1667,16 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>68709.94259999999</v>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AC12">
-        <v>546488.7400999999</v>
+        <v>278148.25</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -1621,19 +1690,19 @@
         <v>2025</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D13">
-        <v>35264.5</v>
+        <v>22457.38</v>
       </c>
       <c r="E13">
-        <v>290894.2855</v>
+        <v>294985.4912</v>
       </c>
       <c r="F13">
-        <v>25630.2434</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>36735.2234</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1645,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="L13">
-        <v>37882.47</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="M13">
-        <v>278938.71</v>
+        <v>250365.09</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1669,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="T13">
-        <v>37882.47</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="U13">
-        <v>278938.71</v>
+        <v>250365.09</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1693,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AC13">
-        <v>358667.5431000001</v>
+        <v>333151.86</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -1713,19 +1782,19 @@
         <v>2025</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D14">
-        <v>21182.46</v>
+        <v>44610.66</v>
       </c>
       <c r="E14">
-        <v>516832.16</v>
+        <v>358194.8644</v>
       </c>
       <c r="F14">
-        <v>41714.5254</v>
+        <v>49129.3974</v>
       </c>
       <c r="G14">
-        <v>36735.2234</v>
+        <v>25843.8757</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1734,22 +1803,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5293.4</v>
+        <v>68709.94259999999</v>
       </c>
       <c r="K14">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>29506.7</v>
+        <v>24406.71</v>
       </c>
       <c r="M14">
-        <v>455228.52</v>
+        <v>334593.33</v>
       </c>
       <c r="N14">
-        <v>2181.06</v>
+        <v>5162.22</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1758,22 +1827,22 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>64902.09</v>
+        <v>115340</v>
       </c>
       <c r="S14">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>29506.7</v>
+        <v>24406.71</v>
       </c>
       <c r="U14">
-        <v>455228.52</v>
+        <v>334593.33</v>
       </c>
       <c r="V14">
-        <v>2181.06</v>
+        <v>5162.22</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -1782,16 +1851,16 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>64902.09</v>
+        <v>115340</v>
       </c>
       <c r="AA14">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC14">
-        <v>750831.1639999999</v>
+        <v>502258.49</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -1799,22 +1868,22 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>2025</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D15">
-        <v>18397.06</v>
+        <v>35264.5</v>
       </c>
       <c r="E15">
-        <v>326646.9343</v>
+        <v>290894.2855</v>
       </c>
       <c r="F15">
-        <v>24329.9319</v>
+        <v>25630.2434</v>
       </c>
       <c r="G15">
         <v>36735.2234</v>
@@ -1829,19 +1898,43 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>36863.1</v>
+        <v>41846.3631</v>
+      </c>
+      <c r="L15">
+        <v>37882.47</v>
+      </c>
+      <c r="M15">
+        <v>278938.71</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>41846.3631</v>
       </c>
       <c r="T15">
-        <v>18397.06</v>
+        <v>37882.47</v>
       </c>
       <c r="U15">
-        <v>326646.9343</v>
+        <v>278938.71</v>
       </c>
       <c r="V15">
-        <v>24329.9319</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>36735.2234</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1852,11 +1945,14 @@
       <c r="Z15">
         <v>0</v>
       </c>
+      <c r="AA15">
+        <v>41846.3631</v>
+      </c>
       <c r="AB15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>406109.1495999999</v>
+        <v>358667.5431000001</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -1864,7 +1960,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>2025</v>
@@ -1873,16 +1969,16 @@
         <v>77</v>
       </c>
       <c r="D16">
-        <v>25142.02</v>
+        <v>21182.46</v>
       </c>
       <c r="E16">
-        <v>277188.6893</v>
+        <v>516832.16</v>
       </c>
       <c r="F16">
-        <v>24698.2346</v>
+        <v>41714.5254</v>
       </c>
       <c r="G16">
-        <v>35406.1098</v>
+        <v>36735.2234</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1891,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5293.4</v>
       </c>
       <c r="K16">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
       <c r="L16">
-        <v>28089.2</v>
+        <v>29506.7</v>
       </c>
       <c r="M16">
-        <v>160763.94</v>
+        <v>455228.52</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1915,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="S16">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
       <c r="T16">
-        <v>28089.2</v>
+        <v>29506.7</v>
       </c>
       <c r="U16">
-        <v>160763.94</v>
+        <v>455228.52</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -1939,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="AA16">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC16">
-        <v>362192.72</v>
+        <v>750831.1639999999</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -1962,19 +2058,19 @@
         <v>2025</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D17">
-        <v>15006.48</v>
+        <v>18397.06</v>
       </c>
       <c r="E17">
-        <v>324866.7652</v>
+        <v>326646.9343</v>
       </c>
       <c r="F17">
-        <v>38730.0079</v>
+        <v>24329.9319</v>
       </c>
       <c r="G17">
-        <v>39190.3916</v>
+        <v>36735.2234</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1986,19 +2082,43 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>36863.1</v>
+      </c>
+      <c r="L17">
+        <v>36093.04</v>
+      </c>
+      <c r="M17">
+        <v>324824.84</v>
+      </c>
+      <c r="N17">
+        <v>7421.05</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>36863.1</v>
       </c>
       <c r="T17">
-        <v>15006.48</v>
+        <v>36093.04</v>
       </c>
       <c r="U17">
-        <v>324866.7652</v>
+        <v>324824.84</v>
       </c>
       <c r="V17">
-        <v>38730.0079</v>
+        <v>7421.05</v>
       </c>
       <c r="W17">
-        <v>39190.3916</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -2008,12 +2128,15 @@
       </c>
       <c r="Z17">
         <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>36863.1</v>
       </c>
       <c r="AB17">
         <v>9</v>
       </c>
       <c r="AC17">
-        <v>417793.6447</v>
+        <v>405202.03</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -2027,19 +2150,19 @@
         <v>2025</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D18">
-        <v>26099.62</v>
+        <v>25142.02</v>
       </c>
       <c r="E18">
-        <v>278579.4218</v>
+        <v>277188.6893</v>
       </c>
       <c r="F18">
-        <v>26251.5827</v>
+        <v>24698.2346</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>35406.1098</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2051,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29992.31</v>
+        <v>173339.58</v>
       </c>
       <c r="L18">
-        <v>24651.29</v>
+        <v>28089.2</v>
       </c>
       <c r="M18">
-        <v>267851.66</v>
+        <v>160763.94</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2075,13 +2198,13 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>29992.31</v>
+        <v>173339.58</v>
       </c>
       <c r="T18">
-        <v>24651.29</v>
+        <v>28089.2</v>
       </c>
       <c r="U18">
-        <v>267851.66</v>
+        <v>160763.94</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2099,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>29992.31</v>
+        <v>173339.58</v>
       </c>
       <c r="AB18">
         <v>1</v>
       </c>
       <c r="AC18">
-        <v>322495.26</v>
+        <v>362192.72</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -2119,19 +2242,19 @@
         <v>2025</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>27006.82</v>
+        <v>15006.48</v>
       </c>
       <c r="E19">
-        <v>264147.2883</v>
+        <v>324866.7652</v>
       </c>
       <c r="F19">
-        <v>27649.596</v>
+        <v>38730.0079</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>39190.3916</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2143,19 +2266,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>33999.38</v>
+        <v>50944.75</v>
       </c>
       <c r="M19">
-        <v>278850.94</v>
+        <v>288251.2</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2167,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>33999.38</v>
+        <v>50944.75</v>
       </c>
       <c r="U19">
-        <v>278850.94</v>
+        <v>288251.2</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2191,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AC19">
-        <v>377162.881</v>
+        <v>365283.14</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -2211,19 +2334,19 @@
         <v>2025</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D20">
-        <v>18896.26</v>
+        <v>26099.62</v>
       </c>
       <c r="E20">
-        <v>320793.0784</v>
+        <v>278579.4218</v>
       </c>
       <c r="F20">
-        <v>27028.2567</v>
+        <v>26251.5827</v>
       </c>
       <c r="G20">
-        <v>10686.4527</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2235,19 +2358,43 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>29992.31</v>
+      </c>
+      <c r="L20">
+        <v>24651.29</v>
+      </c>
+      <c r="M20">
+        <v>267851.66</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>29992.31</v>
       </c>
       <c r="T20">
-        <v>18896.26</v>
+        <v>24651.29</v>
       </c>
       <c r="U20">
-        <v>320793.0784</v>
+        <v>267851.66</v>
       </c>
       <c r="V20">
-        <v>27028.2567</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>10686.4527</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -2258,11 +2405,14 @@
       <c r="Z20">
         <v>0</v>
       </c>
+      <c r="AA20">
+        <v>29992.31</v>
+      </c>
       <c r="AB20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>377404.0478</v>
+        <v>322495.26</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -2276,16 +2426,16 @@
         <v>2025</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D21">
-        <v>17000</v>
+        <v>27006.82</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>264147.2883</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>27649.596</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2300,13 +2450,37 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>64312.56099999999</v>
+      </c>
+      <c r="L21">
+        <v>33999.38</v>
+      </c>
+      <c r="M21">
+        <v>278850.94</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>64312.56099999999</v>
       </c>
       <c r="T21">
-        <v>17000</v>
+        <v>33999.38</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>278850.94</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2323,11 +2497,14 @@
       <c r="Z21">
         <v>0</v>
       </c>
+      <c r="AA21">
+        <v>64312.56099999999</v>
+      </c>
       <c r="AB21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>17000</v>
+        <v>377162.881</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -2341,19 +2518,19 @@
         <v>2025</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D22">
-        <v>26563.62</v>
+        <v>18896.26</v>
       </c>
       <c r="E22">
-        <v>283269.233</v>
+        <v>320793.0784</v>
       </c>
       <c r="F22">
-        <v>25785.5783</v>
+        <v>27028.2567</v>
       </c>
       <c r="G22">
-        <v>36919.8225</v>
+        <v>10686.4527</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2365,43 +2542,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18450</v>
-      </c>
-      <c r="L22">
-        <v>32674.29</v>
-      </c>
-      <c r="M22">
-        <v>290087.79</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>16697.25</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>18450</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>32674.29</v>
+        <v>18896.26</v>
       </c>
       <c r="U22">
-        <v>290087.79</v>
+        <v>320793.0784</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>27028.2567</v>
       </c>
       <c r="W22">
-        <v>16697.25</v>
+        <v>10686.4527</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2412,14 +2565,11 @@
       <c r="Z22">
         <v>0</v>
       </c>
-      <c r="AA22">
-        <v>18450</v>
-      </c>
       <c r="AB22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC22">
-        <v>357909.33</v>
+        <v>377404.0478</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -2433,13 +2583,13 @@
         <v>2025</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D23">
-        <v>18812.78</v>
+        <v>17000</v>
       </c>
       <c r="E23">
-        <v>591541.1514</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2454,43 +2604,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>95464.1189</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>19227.3628</v>
-      </c>
-      <c r="L23">
-        <v>23508.78</v>
-      </c>
-      <c r="M23">
-        <v>568269.17</v>
-      </c>
-      <c r="N23">
-        <v>2615.02</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>36493.87</v>
-      </c>
-      <c r="R23">
-        <v>90840</v>
-      </c>
-      <c r="S23">
-        <v>19719.56</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>23508.78</v>
+        <v>17000</v>
       </c>
       <c r="U23">
-        <v>568269.17</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>2615.02</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -2499,19 +2625,16 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>90840</v>
-      </c>
-      <c r="AA23">
-        <v>19719.56</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC23">
-        <v>741446.4000000001</v>
+        <v>17000</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -2525,85 +2648,85 @@
         <v>2025</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24">
-        <v>18963.92</v>
+        <v>26563.62</v>
       </c>
       <c r="E24">
-        <v>267383.277</v>
+        <v>283269.233</v>
       </c>
       <c r="F24">
-        <v>25093.7551</v>
+        <v>25785.5783</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>36919.8225</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="L24">
-        <v>29758.22</v>
+        <v>32674.29</v>
       </c>
       <c r="M24">
-        <v>245114.65</v>
+        <v>290087.79</v>
       </c>
       <c r="N24">
-        <v>6805.46</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10800.63</v>
+        <v>16697.25</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="T24">
-        <v>29758.22</v>
+        <v>32674.29</v>
       </c>
       <c r="U24">
-        <v>245114.65</v>
+        <v>290087.79</v>
       </c>
       <c r="V24">
-        <v>6805.46</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>10800.63</v>
+        <v>16697.25</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC24">
-        <v>328972.83</v>
+        <v>357909.33</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -2617,19 +2740,19 @@
         <v>2025</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D25">
-        <v>16590.18</v>
+        <v>18812.78</v>
       </c>
       <c r="E25">
-        <v>327010.7217</v>
+        <v>591541.1514</v>
       </c>
       <c r="F25">
-        <v>25630.2434</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>36402.945</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2638,64 +2761,64 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>95464.1189</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19227.3628</v>
       </c>
       <c r="L25">
-        <v>21705.25</v>
+        <v>23508.78</v>
       </c>
       <c r="M25">
-        <v>287071.98</v>
+        <v>568269.17</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2615.02</v>
       </c>
       <c r="O25">
-        <v>36194.4</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>90840</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>19719.56</v>
       </c>
       <c r="T25">
-        <v>21705.25</v>
+        <v>23508.78</v>
       </c>
       <c r="U25">
-        <v>287071.98</v>
+        <v>568269.17</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>2615.02</v>
       </c>
       <c r="W25">
-        <v>36194.4</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>90840</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>19719.56</v>
       </c>
       <c r="AB25">
         <v>3</v>
       </c>
       <c r="AC25">
-        <v>344971.63</v>
+        <v>741446.4000000001</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -2709,19 +2832,19 @@
         <v>2025</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D26">
-        <v>18460.42</v>
+        <v>21300</v>
       </c>
       <c r="E26">
-        <v>281664.89</v>
+        <v>303500</v>
       </c>
       <c r="F26">
-        <v>25785.58</v>
+        <v>39800</v>
       </c>
       <c r="G26">
-        <v>36978.89</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2730,43 +2853,19 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26">
-        <v>28420.94</v>
-      </c>
-      <c r="M26">
-        <v>239742.97</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
       <c r="T26">
-        <v>28420.94</v>
+        <v>21300</v>
       </c>
       <c r="U26">
-        <v>239742.97</v>
+        <v>303500</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>39800</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -2778,16 +2877,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AB26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AC26">
-        <v>268163.91</v>
+        <v>404600</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -2801,85 +2897,85 @@
         <v>2025</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D27">
-        <v>18541.06</v>
+        <v>18963.92</v>
       </c>
       <c r="E27">
-        <v>319530.8217</v>
+        <v>267383.277</v>
       </c>
       <c r="F27">
-        <v>36708.3923</v>
+        <v>25093.7551</v>
       </c>
       <c r="G27">
-        <v>37289.0207</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="J27">
-        <v>5373.2</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>24335.07</v>
+        <v>29758.22</v>
       </c>
       <c r="M27">
-        <v>247385.28</v>
+        <v>245114.65</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>6805.46</v>
       </c>
       <c r="O27">
-        <v>6678.9</v>
+        <v>10800.63</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>24335.07</v>
+        <v>29758.22</v>
       </c>
       <c r="U27">
-        <v>247385.28</v>
+        <v>245114.65</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>6805.46</v>
       </c>
       <c r="W27">
-        <v>6678.9</v>
+        <v>10800.63</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC27">
-        <v>361031.96</v>
+        <v>328972.83</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -2896,16 +2992,16 @@
         <v>79</v>
       </c>
       <c r="D28">
-        <v>14932.88</v>
+        <v>16590.18</v>
       </c>
       <c r="E28">
-        <v>262147.1729</v>
+        <v>327010.7217</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>25630.2434</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>36402.945</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2914,22 +3010,22 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>5376</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>22202.17</v>
+        <v>21705.25</v>
       </c>
       <c r="M28">
-        <v>232396.83</v>
+        <v>287071.98</v>
       </c>
       <c r="N28">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>36194.4</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2944,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>22202.17</v>
+        <v>21705.25</v>
       </c>
       <c r="U28">
-        <v>232396.83</v>
+        <v>287071.98</v>
       </c>
       <c r="V28">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>36194.4</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2968,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC28">
-        <v>257909.93</v>
+        <v>344971.63</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -2985,19 +3081,19 @@
         <v>2025</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D29">
-        <v>16058</v>
+        <v>18460.42</v>
       </c>
       <c r="E29">
-        <v>317342.6932</v>
+        <v>281664.89</v>
       </c>
       <c r="F29">
-        <v>26406.9175</v>
+        <v>25785.58</v>
       </c>
       <c r="G29">
-        <v>36993.6621</v>
+        <v>36978.89</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3009,16 +3105,16 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>31949.91</v>
+        <v>28420.94</v>
       </c>
       <c r="M29">
-        <v>264422.99</v>
+        <v>239742.97</v>
       </c>
       <c r="N29">
-        <v>6589.74</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -3033,16 +3129,16 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>31949.91</v>
+        <v>28420.94</v>
       </c>
       <c r="U29">
-        <v>264422.99</v>
+        <v>239742.97</v>
       </c>
       <c r="V29">
-        <v>6589.74</v>
+        <v>0</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -3057,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>6</v>
       </c>
       <c r="AC29">
-        <v>317069.51</v>
+        <v>268163.91</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -3077,19 +3173,19 @@
         <v>2025</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D30">
-        <v>15265.68</v>
+        <v>18541.06</v>
       </c>
       <c r="E30">
-        <v>311352.2643</v>
+        <v>319530.8217</v>
       </c>
       <c r="F30">
-        <v>26406.9175</v>
+        <v>36708.3923</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>37289.0207</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3098,22 +3194,22 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>5373.2</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="L30">
-        <v>34725.64</v>
+        <v>24335.07</v>
       </c>
       <c r="M30">
-        <v>314368.92</v>
+        <v>247385.28</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3125,19 +3221,19 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="T30">
-        <v>34725.64</v>
+        <v>24335.07</v>
       </c>
       <c r="U30">
-        <v>314368.92</v>
+        <v>247385.28</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3149,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC30">
-        <v>349094.56</v>
+        <v>361031.96</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -3169,13 +3265,13 @@
         <v>2025</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D31">
-        <v>20558.98</v>
+        <v>14932.88</v>
       </c>
       <c r="E31">
-        <v>300178.145</v>
+        <v>262147.1729</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3187,22 +3283,46 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
+      <c r="L31">
+        <v>22202.17</v>
+      </c>
+      <c r="M31">
+        <v>231965.51</v>
+      </c>
+      <c r="N31">
+        <v>3310.93</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
       <c r="T31">
-        <v>20558.98</v>
+        <v>22202.17</v>
       </c>
       <c r="U31">
-        <v>300178.145</v>
+        <v>231965.51</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>3310.93</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3211,16 +3331,19 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
       <c r="AB31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC31">
-        <v>357230.995</v>
+        <v>257478.61</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -3234,22 +3357,22 @@
         <v>2025</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32">
-        <v>80000</v>
+        <v>16058</v>
       </c>
       <c r="E32">
-        <v>120000</v>
+        <v>317342.6932</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>36993.6621</v>
       </c>
       <c r="H32">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3258,22 +3381,46 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>22674.42</v>
+        <v>14106.87</v>
+      </c>
+      <c r="L32">
+        <v>31949.91</v>
+      </c>
+      <c r="M32">
+        <v>264422.99</v>
+      </c>
+      <c r="N32">
+        <v>6589.74</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>14106.87</v>
       </c>
       <c r="T32">
-        <v>80000</v>
+        <v>31949.91</v>
       </c>
       <c r="U32">
-        <v>120000</v>
+        <v>264422.99</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>6589.74</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3281,11 +3428,14 @@
       <c r="Z32">
         <v>0</v>
       </c>
+      <c r="AA32">
+        <v>14106.87</v>
+      </c>
       <c r="AB32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC32">
-        <v>235000</v>
+        <v>317069.51</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -3299,16 +3449,16 @@
         <v>2025</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D33">
-        <v>14668.56</v>
+        <v>15265.68</v>
       </c>
       <c r="E33">
-        <v>301721.9088</v>
+        <v>311352.2643</v>
       </c>
       <c r="F33">
-        <v>24232.2302</v>
+        <v>26406.9175</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3326,13 +3476,13 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>27181.54</v>
+        <v>34725.64</v>
       </c>
       <c r="M33">
-        <v>270393.7</v>
+        <v>314368.92</v>
       </c>
       <c r="N33">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -3350,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>27181.54</v>
+        <v>34725.64</v>
       </c>
       <c r="U33">
-        <v>270393.7</v>
+        <v>314368.92</v>
       </c>
       <c r="V33">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3374,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>319664.58</v>
+        <v>349094.56</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -3391,13 +3541,13 @@
         <v>2025</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D34">
-        <v>30000</v>
+        <v>20558.98</v>
       </c>
       <c r="E34">
-        <v>120000</v>
+        <v>300178.145</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3406,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>81189.56</v>
+        <v>35983.12</v>
       </c>
       <c r="M34">
-        <v>75026.78</v>
+        <v>297098.25</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3433,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3442,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>81189.56</v>
+        <v>35983.12</v>
       </c>
       <c r="U34">
-        <v>75026.78</v>
+        <v>297098.25</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3457,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -3466,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC34">
-        <v>156216.34</v>
+        <v>369575.24</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -3483,43 +3633,43 @@
         <v>2025</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="E35">
-        <v>433983.8522</v>
+        <v>120000</v>
       </c>
       <c r="F35">
-        <v>66756.6691</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>37362.8604</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>110048.5105</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
       <c r="L35">
-        <v>33875.99</v>
+        <v>52083.67</v>
       </c>
       <c r="M35">
-        <v>388449.69</v>
+        <v>166132.1</v>
       </c>
       <c r="N35">
-        <v>41728.31</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3534,16 +3684,16 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>33875.99</v>
+        <v>52083.67</v>
       </c>
       <c r="U35">
-        <v>388449.69</v>
+        <v>166132.1</v>
       </c>
       <c r="V35">
-        <v>41728.31</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3558,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AC35">
-        <v>498179.22</v>
+        <v>218215.77</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -3575,19 +3725,19 @@
         <v>2025</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D36">
-        <v>19881.64</v>
+        <v>14668.56</v>
       </c>
       <c r="E36">
-        <v>544086.7781999999</v>
+        <v>301721.9088</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>24232.2302</v>
       </c>
       <c r="G36">
-        <v>34335.4349</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3602,16 +3752,16 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>24492.98</v>
+        <v>27181.54</v>
       </c>
       <c r="M36">
-        <v>532274.26</v>
+        <v>270393.7</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>22089.34</v>
       </c>
       <c r="O36">
-        <v>13669.61</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3626,16 +3776,16 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>24492.98</v>
+        <v>27181.54</v>
       </c>
       <c r="U36">
-        <v>532274.26</v>
+        <v>270393.7</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>22089.34</v>
       </c>
       <c r="W36">
-        <v>13669.61</v>
+        <v>0</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -3650,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC36">
-        <v>570436.85</v>
+        <v>319664.58</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -3667,22 +3817,22 @@
         <v>2025</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D37">
-        <v>20006.44</v>
+        <v>30000</v>
       </c>
       <c r="E37">
-        <v>386492.0891</v>
+        <v>120000</v>
       </c>
       <c r="F37">
-        <v>26973.826</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3691,16 +3841,40 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>22674.42</v>
+      </c>
+      <c r="L37">
+        <v>81189.56</v>
+      </c>
+      <c r="M37">
+        <v>75026.78</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>21490.444</v>
       </c>
       <c r="T37">
-        <v>20006.44</v>
+        <v>81189.56</v>
       </c>
       <c r="U37">
-        <v>386492.0891</v>
+        <v>75026.78</v>
       </c>
       <c r="V37">
-        <v>26973.826</v>
+        <v>0</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -3714,11 +3888,14 @@
       <c r="Z37">
         <v>0</v>
       </c>
+      <c r="AA37">
+        <v>21490.444</v>
+      </c>
       <c r="AB37">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC37">
-        <v>433472.3551</v>
+        <v>177706.784</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -3732,43 +3909,43 @@
         <v>2025</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D38">
-        <v>32773.06</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>341581.165</v>
+        <v>433983.8522</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>66756.6691</v>
       </c>
       <c r="G38">
-        <v>36550.6243</v>
+        <v>37362.8604</v>
       </c>
       <c r="H38">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>110048.5105</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>35046.84</v>
+        <v>33875.99</v>
       </c>
       <c r="M38">
-        <v>349849.48</v>
+        <v>388449.69</v>
       </c>
       <c r="N38">
-        <v>11417</v>
+        <v>41728.31</v>
       </c>
       <c r="O38">
-        <v>36470.26</v>
+        <v>34125.23</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3783,16 +3960,16 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>35046.84</v>
+        <v>33875.99</v>
       </c>
       <c r="U38">
-        <v>349849.48</v>
+        <v>388449.69</v>
       </c>
       <c r="V38">
-        <v>11417</v>
+        <v>41728.31</v>
       </c>
       <c r="W38">
-        <v>36470.26</v>
+        <v>34125.23</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3810,7 +3987,7 @@
         <v>3</v>
       </c>
       <c r="AC38">
-        <v>432783.58</v>
+        <v>498179.22</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -3824,19 +4001,19 @@
         <v>2025</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D39">
-        <v>29792.44</v>
+        <v>19881.64</v>
       </c>
       <c r="E39">
-        <v>592371.3167</v>
+        <v>544086.7781999999</v>
       </c>
       <c r="F39">
-        <v>25940.9131</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>37196.7212</v>
+        <v>34335.4349</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3848,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>35571.27</v>
+        <v>24492.98</v>
       </c>
       <c r="M39">
-        <v>48616.23</v>
+        <v>532274.26</v>
       </c>
       <c r="N39">
-        <v>37765.32</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>37083.02</v>
+        <v>13669.61</v>
       </c>
       <c r="P39">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3872,22 +4049,22 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>35571.27</v>
+        <v>24492.98</v>
       </c>
       <c r="U39">
-        <v>48616.23</v>
+        <v>532274.26</v>
       </c>
       <c r="V39">
-        <v>37765.32</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>37083.02</v>
+        <v>13669.61</v>
       </c>
       <c r="X39">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3896,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC39">
-        <v>685822.3799999999</v>
+        <v>570436.85</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -3916,16 +4093,16 @@
         <v>2025</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D40">
-        <v>25326.82</v>
+        <v>20006.44</v>
       </c>
       <c r="E40">
-        <v>276375.5386</v>
+        <v>386492.0891</v>
       </c>
       <c r="F40">
-        <v>25008.9042</v>
+        <v>26973.826</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3940,40 +4117,16 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>23876.1125</v>
-      </c>
-      <c r="L40">
-        <v>27944</v>
-      </c>
-      <c r="M40">
-        <v>230888.76</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>27944</v>
+        <v>20006.44</v>
       </c>
       <c r="U40">
-        <v>230888.76</v>
+        <v>386492.0891</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>26973.826</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -3987,14 +4140,11 @@
       <c r="Z40">
         <v>0</v>
       </c>
-      <c r="AA40">
-        <v>23876.1125</v>
-      </c>
       <c r="AB40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC40">
-        <v>282708.8725</v>
+        <v>433472.3551</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -4008,43 +4158,43 @@
         <v>2025</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D41">
-        <v>18541.06</v>
+        <v>32773.06</v>
       </c>
       <c r="E41">
-        <v>252067.7995</v>
+        <v>341581.165</v>
       </c>
       <c r="F41">
-        <v>26979.2036</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>36919.8225</v>
+        <v>36550.6243</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>52444.52</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>28895.31</v>
+        <v>35046.84</v>
       </c>
       <c r="M41">
-        <v>251643.6000000001</v>
+        <v>349849.48</v>
       </c>
       <c r="N41">
-        <v>3379</v>
+        <v>11417</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>36470.26</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -4053,22 +4203,22 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>52444.52</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>28895.31</v>
+        <v>35046.84</v>
       </c>
       <c r="U41">
-        <v>251643.6000000001</v>
+        <v>349849.48</v>
       </c>
       <c r="V41">
-        <v>3379</v>
+        <v>11417</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>36470.26</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -4077,16 +4227,16 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>52444.52</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC41">
-        <v>344392.3200000001</v>
+        <v>432783.58</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -4100,19 +4250,19 @@
         <v>2025</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D42">
-        <v>21854.46</v>
+        <v>29792.44</v>
       </c>
       <c r="E42">
-        <v>624821.7819000001</v>
+        <v>592371.3167</v>
       </c>
       <c r="F42">
-        <v>12116.1151</v>
+        <v>25940.9131</v>
       </c>
       <c r="G42">
-        <v>40316.4462</v>
+        <v>37196.7212</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4121,64 +4271,64 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>19487.5781</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>229812.833425</v>
+        <v>500373.46</v>
       </c>
       <c r="L42">
-        <v>29071.03</v>
+        <v>35571.27</v>
       </c>
       <c r="M42">
-        <v>325344.86</v>
+        <v>48616.23</v>
       </c>
       <c r="N42">
-        <v>91485.00999999999</v>
+        <v>37765.32</v>
       </c>
       <c r="O42">
-        <v>39357.69</v>
+        <v>37083.02</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>26413.08</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>229812.833425</v>
+        <v>500373.46</v>
       </c>
       <c r="T42">
-        <v>29071.03</v>
+        <v>35571.27</v>
       </c>
       <c r="U42">
-        <v>325344.86</v>
+        <v>48616.23</v>
       </c>
       <c r="V42">
-        <v>91485.00999999999</v>
+        <v>37765.32</v>
       </c>
       <c r="W42">
-        <v>39357.69</v>
+        <v>37083.02</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>26413.08</v>
       </c>
       <c r="Y42">
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>229812.833425</v>
+        <v>500373.46</v>
       </c>
       <c r="AB42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC42">
-        <v>778637.4234249999</v>
+        <v>685822.3799999999</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -4195,84 +4345,452 @@
         <v>75</v>
       </c>
       <c r="D43">
+        <v>23898.82</v>
+      </c>
+      <c r="E43">
+        <v>409625.5938</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>32674.0429</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>74021.34</v>
+      </c>
+      <c r="L43">
+        <v>26512.21</v>
+      </c>
+      <c r="M43">
+        <v>337917.65</v>
+      </c>
+      <c r="N43">
+        <v>60888.94</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>74021.34</v>
+      </c>
+      <c r="T43">
+        <v>26512.21</v>
+      </c>
+      <c r="U43">
+        <v>337917.65</v>
+      </c>
+      <c r="V43">
+        <v>60888.94</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>74021.34</v>
+      </c>
+      <c r="AB43">
+        <v>10</v>
+      </c>
+      <c r="AC43">
+        <v>499340.14</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44">
+        <v>2025</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44">
+        <v>25326.82</v>
+      </c>
+      <c r="E44">
+        <v>276375.5386</v>
+      </c>
+      <c r="F44">
+        <v>25008.9042</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>23876.1125</v>
+      </c>
+      <c r="L44">
+        <v>27944</v>
+      </c>
+      <c r="M44">
+        <v>230888.76</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>23876.1125</v>
+      </c>
+      <c r="T44">
+        <v>27944</v>
+      </c>
+      <c r="U44">
+        <v>230888.76</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>23876.1125</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>282708.8725</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <v>2025</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45">
+        <v>18541.06</v>
+      </c>
+      <c r="E45">
+        <v>252067.7995</v>
+      </c>
+      <c r="F45">
+        <v>26979.2036</v>
+      </c>
+      <c r="G45">
+        <v>36919.8225</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>5600</v>
+      </c>
+      <c r="K45">
+        <v>52444.52</v>
+      </c>
+      <c r="L45">
+        <v>28895.31</v>
+      </c>
+      <c r="M45">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="N45">
+        <v>3379</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>8029.89</v>
+      </c>
+      <c r="S45">
+        <v>52444.52</v>
+      </c>
+      <c r="T45">
+        <v>28895.31</v>
+      </c>
+      <c r="U45">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="V45">
+        <v>3379</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>8029.89</v>
+      </c>
+      <c r="AA45">
+        <v>52444.52</v>
+      </c>
+      <c r="AB45">
+        <v>7</v>
+      </c>
+      <c r="AC45">
+        <v>344392.3200000001</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46">
+        <v>2025</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46">
+        <v>21854.46</v>
+      </c>
+      <c r="E46">
+        <v>624821.7819000001</v>
+      </c>
+      <c r="F46">
+        <v>12116.1151</v>
+      </c>
+      <c r="G46">
+        <v>40316.4462</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>19487.5781</v>
+      </c>
+      <c r="K46">
+        <v>229812.833425</v>
+      </c>
+      <c r="L46">
+        <v>33879.14</v>
+      </c>
+      <c r="M46">
+        <v>325344.86</v>
+      </c>
+      <c r="N46">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="O46">
+        <v>39357.69</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>63566</v>
+      </c>
+      <c r="S46">
+        <v>229812.833425</v>
+      </c>
+      <c r="T46">
+        <v>33879.14</v>
+      </c>
+      <c r="U46">
+        <v>325344.86</v>
+      </c>
+      <c r="V46">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="W46">
+        <v>39357.69</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>63566</v>
+      </c>
+      <c r="AA46">
+        <v>229812.833425</v>
+      </c>
+      <c r="AB46">
+        <v>6</v>
+      </c>
+      <c r="AC46">
+        <v>783445.533425</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47">
+        <v>2025</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47">
         <v>27683.86</v>
       </c>
-      <c r="E43">
+      <c r="E47">
         <v>418982.5319</v>
       </c>
-      <c r="F43">
+      <c r="F47">
         <v>51527.9349</v>
       </c>
-      <c r="G43">
+      <c r="G47">
         <v>40992.0789</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>181185.5419</v>
       </c>
-      <c r="K43">
+      <c r="K47">
         <v>60577.37</v>
       </c>
-      <c r="L43">
-        <v>30868.28</v>
-      </c>
-      <c r="M43">
+      <c r="L47">
+        <v>136868.28</v>
+      </c>
+      <c r="M47">
         <v>363209.57</v>
       </c>
-      <c r="N43">
+      <c r="N47">
         <v>65966.92</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
         <v>95933.12</v>
       </c>
-      <c r="S43">
+      <c r="S47">
         <v>60577.37</v>
       </c>
-      <c r="T43">
-        <v>30868.28</v>
-      </c>
-      <c r="U43">
+      <c r="T47">
+        <v>136868.28</v>
+      </c>
+      <c r="U47">
         <v>363209.57</v>
       </c>
-      <c r="V43">
+      <c r="V47">
         <v>65966.92</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
         <v>95933.12</v>
       </c>
-      <c r="AA43">
+      <c r="AA47">
         <v>60577.37</v>
       </c>
-      <c r="AB43">
+      <c r="AB47">
         <v>7</v>
       </c>
-      <c r="AC43">
-        <v>616555.26</v>
-      </c>
-      <c r="AD43">
+      <c r="AC47">
+        <v>722555.26</v>
+      </c>
+      <c r="AD47">
         <v>1</v>
       </c>
     </row>

--- a/summary/als/real_costs_als.xlsx
+++ b/summary/als/real_costs_als.xlsx
@@ -758,14 +758,38 @@
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>13391.57</v>
+      </c>
+      <c r="M2">
+        <v>279350.01</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>63774.22</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
       <c r="T2">
-        <v>12973.06</v>
+        <v>13391.57</v>
       </c>
       <c r="U2">
-        <v>302399.9252000001</v>
+        <v>279350.01</v>
       </c>
       <c r="V2">
-        <v>10239.5255</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -777,13 +801,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
+        <v>63774.22</v>
+      </c>
+      <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
         <v>10</v>
       </c>
       <c r="AC2">
-        <v>325612.5107</v>
+        <v>356515.8</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -888,14 +915,38 @@
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>33666.72</v>
+      </c>
+      <c r="M4">
+        <v>341703.8</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
       <c r="T4">
-        <v>18205.06</v>
+        <v>33666.72</v>
       </c>
       <c r="U4">
-        <v>324144.4391</v>
+        <v>341703.8</v>
       </c>
       <c r="V4">
-        <v>25164.239</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -907,13 +958,16 @@
         <v>0</v>
       </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
         <v>10</v>
       </c>
       <c r="AC4">
-        <v>367513.7381</v>
+        <v>375370.52</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -1758,7 +1812,7 @@
         <v>24406.71</v>
       </c>
       <c r="M14">
-        <v>340968.83</v>
+        <v>334593.33</v>
       </c>
       <c r="N14">
         <v>5162.22</v>
@@ -1782,7 +1836,7 @@
         <v>24406.71</v>
       </c>
       <c r="U14">
-        <v>340968.83</v>
+        <v>334593.33</v>
       </c>
       <c r="V14">
         <v>5162.22</v>
@@ -1806,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="AC14">
-        <v>508633.99</v>
+        <v>502258.49</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -4312,19 +4366,43 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>42006.49</v>
+        <v>74021.34</v>
+      </c>
+      <c r="L43">
+        <v>26512.21</v>
+      </c>
+      <c r="M43">
+        <v>337917.65</v>
+      </c>
+      <c r="N43">
+        <v>60888.94</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>74021.34</v>
       </c>
       <c r="T43">
-        <v>23898.82</v>
+        <v>26512.21</v>
       </c>
       <c r="U43">
-        <v>409625.5938</v>
+        <v>337917.65</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>60888.94</v>
       </c>
       <c r="W43">
-        <v>32674.0429</v>
+        <v>0</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -4334,12 +4412,15 @@
       </c>
       <c r="Z43">
         <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>74021.34</v>
       </c>
       <c r="AB43">
         <v>10</v>
       </c>
       <c r="AC43">
-        <v>466198.4567</v>
+        <v>499340.14</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -4656,7 +4737,7 @@
         <v>60577.37</v>
       </c>
       <c r="L47">
-        <v>30868.28</v>
+        <v>136868.28</v>
       </c>
       <c r="M47">
         <v>363209.57</v>
@@ -4680,7 +4761,7 @@
         <v>60577.37</v>
       </c>
       <c r="T47">
-        <v>30868.28</v>
+        <v>136868.28</v>
       </c>
       <c r="U47">
         <v>363209.57</v>
@@ -4707,7 +4788,7 @@
         <v>7</v>
       </c>
       <c r="AC47">
-        <v>616555.26</v>
+        <v>722555.26</v>
       </c>
       <c r="AD47">
         <v>1</v>
